--- a/Documentation/SPA_BOM_v1.0.xlsx
+++ b/Documentation/SPA_BOM_v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Switches\Sip-n-Puff Switch Analog\5-Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Switches\Sip-n-Puff Switch Analog\Publishing\GitHub\Sip-And-Puff-Analog-Switch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A32A33-8D5D-436A-BA7A-25107436A88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B23CE4-DD08-461D-B3DF-CD466C35CECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,19 +708,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -810,14 +820,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +856,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -902,140 +912,146 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="9" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,33 +1290,33 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="256" customWidth="1"/>
     <col min="19" max="36" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="94" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="92" customFormat="1" ht="108" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="s">
         <v>133</v>
       </c>
@@ -1310,69 +1326,69 @@
       <c r="C1" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="N1" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
     </row>
     <row r="2" spans="1:36" s="89" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84"/>
@@ -1398,9 +1414,9 @@
         <v>286.71299999999997</v>
       </c>
       <c r="P2" s="87"/>
-      <c r="Q2" s="104">
+      <c r="Q2" s="123">
         <f>SUM(Q3:Q52)</f>
-        <v>116.2377</v>
+        <v>113.2377</v>
       </c>
       <c r="R2" s="86"/>
       <c r="S2" s="88"/>
@@ -1462,7 +1478,7 @@
     </row>
     <row r="4" spans="1:36" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="101" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="75"/>
@@ -1474,14 +1490,14 @@
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
-      <c r="L4" s="96"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="76"/>
       <c r="N4" s="76"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="99"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="77">
-        <f>SUM(P5:P23)</f>
-        <v>51.17</v>
+        <f>SUM(P5:P20)</f>
+        <v>48.17</v>
       </c>
       <c r="R4" s="76"/>
       <c r="S4" s="78"/>
@@ -1683,7 +1699,7 @@
       <c r="K7" s="47">
         <v>1</v>
       </c>
-      <c r="L7" s="100">
+      <c r="L7" s="98">
         <v>2.16</v>
       </c>
       <c r="M7" s="47">
@@ -1755,7 +1771,7 @@
       <c r="K8" s="52">
         <v>1</v>
       </c>
-      <c r="L8" s="100">
+      <c r="L8" s="98">
         <v>0.5</v>
       </c>
       <c r="M8" s="47">
@@ -2051,7 +2067,7 @@
       <c r="K12" s="54">
         <v>1</v>
       </c>
-      <c r="L12" s="100">
+      <c r="L12" s="98">
         <v>0.5</v>
       </c>
       <c r="M12" s="47">
@@ -2273,7 +2289,7 @@
       <c r="K15" s="56">
         <v>1</v>
       </c>
-      <c r="L15" s="100">
+      <c r="L15" s="98">
         <v>0.34</v>
       </c>
       <c r="M15" s="47">
@@ -2421,7 +2437,7 @@
       <c r="K17" s="52">
         <v>1</v>
       </c>
-      <c r="L17" s="100">
+      <c r="L17" s="98">
         <v>0.16</v>
       </c>
       <c r="M17" s="47">
@@ -2495,7 +2511,7 @@
       <c r="K18" s="59">
         <v>1</v>
       </c>
-      <c r="L18" s="100">
+      <c r="L18" s="98">
         <v>0.16</v>
       </c>
       <c r="M18" s="47">
@@ -2569,7 +2585,7 @@
       <c r="K19" s="55">
         <v>1</v>
       </c>
-      <c r="L19" s="100">
+      <c r="L19" s="98">
         <v>0.16</v>
       </c>
       <c r="M19" s="47">
@@ -2643,7 +2659,7 @@
       <c r="K20" s="63">
         <v>1</v>
       </c>
-      <c r="L20" s="101">
+      <c r="L20" s="99">
         <v>3.49</v>
       </c>
       <c r="M20" s="64">
@@ -2700,7 +2716,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="11"/>
       <c r="N21" s="61"/>
-      <c r="O21" s="97"/>
+      <c r="O21" s="95"/>
       <c r="P21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2728,28 +2744,28 @@
     </row>
     <row r="22" spans="1:36" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="102" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="80"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="106"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="103"/>
       <c r="N22" s="81"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="109">
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="106">
         <f>SUM(P23)</f>
         <v>3</v>
       </c>
-      <c r="R22" s="110"/>
+      <c r="R22" s="107"/>
       <c r="S22" s="82"/>
       <c r="T22" s="82"/>
       <c r="U22" s="82"/>
@@ -2769,73 +2785,73 @@
       <c r="AI22" s="82"/>
       <c r="AJ22" s="82"/>
     </row>
-    <row r="23" spans="1:36" s="117" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111" t="s">
+    <row r="23" spans="1:36" s="114" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="108"/>
+      <c r="B23" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="108">
         <v>1</v>
       </c>
-      <c r="E23" s="111" t="s">
+      <c r="E23" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111">
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108">
         <v>5</v>
       </c>
-      <c r="L23" s="113">
+      <c r="L23" s="110">
         <v>15</v>
       </c>
-      <c r="M23" s="112">
+      <c r="M23" s="109">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N23" s="112">
+      <c r="N23" s="109">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O23" s="114">
+      <c r="O23" s="111">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P23" s="114">
+      <c r="P23" s="111">
         <f>M23*D23</f>
         <v>3</v>
       </c>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="115" t="s">
+      <c r="Q23" s="110"/>
+      <c r="R23" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="116"/>
-      <c r="AJ23" s="116"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
     </row>
     <row r="24" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -2852,7 +2868,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="9"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="97"/>
+      <c r="O24" s="95"/>
       <c r="P24" s="7">
         <f>M24*D24</f>
         <v>0</v>
@@ -2878,48 +2894,48 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:36" s="123" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119" t="s">
+    <row r="25" spans="1:36" s="120" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
+      <c r="B25" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="120">
+      <c r="C25" s="115"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="117">
         <f>SUM(P26:P38)</f>
         <v>54.452500000000001</v>
       </c>
-      <c r="R25" s="118"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="122"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="119"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="119"/>
+      <c r="AH25" s="119"/>
+      <c r="AI25" s="119"/>
+      <c r="AJ25" s="119"/>
     </row>
     <row r="26" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
@@ -2967,7 +2983,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Q26" s="32"/>
-      <c r="R26" s="95" t="s">
+      <c r="R26" s="93" t="s">
         <v>200</v>
       </c>
       <c r="S26" s="33"/>
@@ -3376,7 +3392,7 @@
         <v>2.6983999999999999</v>
       </c>
       <c r="Q32" s="32"/>
-      <c r="R32" s="95" t="s">
+      <c r="R32" s="93" t="s">
         <v>192</v>
       </c>
       <c r="S32" s="33"/>
@@ -3563,7 +3579,7 @@
       <c r="K35" s="39">
         <v>1</v>
       </c>
-      <c r="L35" s="102">
+      <c r="L35" s="100">
         <v>5</v>
       </c>
       <c r="M35" s="31">
@@ -3635,7 +3651,7 @@
       <c r="K36" s="39">
         <v>10</v>
       </c>
-      <c r="L36" s="102">
+      <c r="L36" s="100">
         <f>(14.5+21.31/2)*1.3</f>
         <v>32.701500000000003</v>
       </c>
@@ -3708,7 +3724,7 @@
       <c r="K37" s="39">
         <v>10</v>
       </c>
-      <c r="L37" s="102">
+      <c r="L37" s="100">
         <f>(10+21.31/2)*1.3</f>
         <v>26.851500000000001</v>
       </c>
@@ -3832,7 +3848,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="2"/>
       <c r="N39" s="61"/>
-      <c r="O39" s="97"/>
+      <c r="O39" s="95"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="2"/>

--- a/Documentation/SPA_BOM_v1.0.xlsx
+++ b/Documentation/SPA_BOM_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Switches\Sip-n-Puff Switch Analog\Publishing\GitHub\Sip-And-Puff-Analog-Switch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Switches\HT3 Sip and Puff Switch\Publishing\GitHub\Sip-And-Puff-Analog-Switch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B23CE4-DD08-461D-B3DF-CD466C35CECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F941881B-5357-4C50-8DAC-0E2055FBDDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="1650" windowWidth="17640" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sip_and_Puff_Switch" sheetId="1" r:id="rId1"/>
@@ -647,12 +647,6 @@
     <t>e.g. https://www.pcbway.com/ 25-40 day shipping</t>
   </si>
   <si>
-    <t>Machine Screw, M3, 12 mm?? Length</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/apm-hexseal/RM3X12MM-2701/2063201</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/b-f-fastener-supply/MHNZ-003/274973</t>
   </si>
   <si>
@@ -684,6 +678,12 @@
   </si>
   <si>
     <t>https://github.com/makersmakingchange/Sip-And-Puff-Analog-Switch/blob/master/Build_Files/3D_Printing/SPA_MP_Top_Swivel.stl</t>
+  </si>
+  <si>
+    <t>Machine Screw, M3, 16 mm Length</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/29316/1532210</t>
   </si>
 </sst>
 </file>
@@ -912,11 +912,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -993,7 +992,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1048,10 +1046,10 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,10 +1285,10 @@
   <dimension ref="A1:AJ1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1316,127 +1314,127 @@
     <col min="19" max="36" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="92" customFormat="1" ht="108" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:36" s="91" customFormat="1" ht="108" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="122" t="s">
+      <c r="L1" s="121" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="M1" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="121" t="s">
+      <c r="N1" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="122" t="s">
+      <c r="O1" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="122" t="s">
+      <c r="P1" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-    </row>
-    <row r="2" spans="1:36" s="89" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+    </row>
+    <row r="2" spans="1:36" s="88" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="87">
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86">
         <f>SUM(O5:O51)</f>
-        <v>286.71299999999997</v>
-      </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="123">
+        <v>284.91299999999995</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="122">
         <f>SUM(Q3:Q52)</f>
-        <v>113.2377</v>
-      </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
+        <v>111.43770000000001</v>
+      </c>
+      <c r="R2" s="85"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
     </row>
     <row r="3" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1476,48 +1474,48 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="101" t="s">
+    <row r="4" spans="1:36" s="78" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="77">
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="76">
         <f>SUM(P5:P20)</f>
         <v>48.17</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
     </row>
     <row r="5" spans="1:36" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
@@ -1699,7 +1697,7 @@
       <c r="K7" s="47">
         <v>1</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="97">
         <v>2.16</v>
       </c>
       <c r="M7" s="47">
@@ -1771,7 +1769,7 @@
       <c r="K8" s="52">
         <v>1</v>
       </c>
-      <c r="L8" s="98">
+      <c r="L8" s="97">
         <v>0.5</v>
       </c>
       <c r="M8" s="47">
@@ -2067,7 +2065,7 @@
       <c r="K12" s="54">
         <v>1</v>
       </c>
-      <c r="L12" s="98">
+      <c r="L12" s="97">
         <v>0.5</v>
       </c>
       <c r="M12" s="47">
@@ -2289,7 +2287,7 @@
       <c r="K15" s="56">
         <v>1</v>
       </c>
-      <c r="L15" s="98">
+      <c r="L15" s="97">
         <v>0.34</v>
       </c>
       <c r="M15" s="47">
@@ -2437,7 +2435,7 @@
       <c r="K17" s="52">
         <v>1</v>
       </c>
-      <c r="L17" s="98">
+      <c r="L17" s="97">
         <v>0.16</v>
       </c>
       <c r="M17" s="47">
@@ -2511,7 +2509,7 @@
       <c r="K18" s="59">
         <v>1</v>
       </c>
-      <c r="L18" s="98">
+      <c r="L18" s="97">
         <v>0.16</v>
       </c>
       <c r="M18" s="47">
@@ -2585,7 +2583,7 @@
       <c r="K19" s="55">
         <v>1</v>
       </c>
-      <c r="L19" s="98">
+      <c r="L19" s="97">
         <v>0.16</v>
       </c>
       <c r="M19" s="47">
@@ -2659,7 +2657,7 @@
       <c r="K20" s="63">
         <v>1</v>
       </c>
-      <c r="L20" s="99">
+      <c r="L20" s="98">
         <v>3.49</v>
       </c>
       <c r="M20" s="64">
@@ -2716,7 +2714,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="11"/>
       <c r="N21" s="61"/>
-      <c r="O21" s="95"/>
+      <c r="O21" s="94"/>
       <c r="P21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2742,116 +2740,116 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="1:36" s="83" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="102" t="s">
+    <row r="22" spans="1:36" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="106">
+      <c r="C22" s="79"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="105">
         <f>SUM(P23)</f>
         <v>3</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-      <c r="AI22" s="82"/>
-      <c r="AJ22" s="82"/>
-    </row>
-    <row r="23" spans="1:36" s="114" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108" t="s">
+      <c r="R22" s="106"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+    </row>
+    <row r="23" spans="1:36" s="113" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="107">
         <v>1</v>
       </c>
-      <c r="E23" s="108" t="s">
+      <c r="E23" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="109" t="s">
+      <c r="G23" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108">
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107">
         <v>5</v>
       </c>
-      <c r="L23" s="110">
+      <c r="L23" s="109">
         <v>15</v>
       </c>
-      <c r="M23" s="109">
+      <c r="M23" s="108">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N23" s="109">
+      <c r="N23" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O23" s="111">
+      <c r="O23" s="110">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P23" s="111">
+      <c r="P23" s="110">
         <f>M23*D23</f>
         <v>3</v>
       </c>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="112" t="s">
+      <c r="Q23" s="109"/>
+      <c r="R23" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="113"/>
-      <c r="AI23" s="113"/>
-      <c r="AJ23" s="113"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="112"/>
+      <c r="AI23" s="112"/>
+      <c r="AJ23" s="112"/>
     </row>
     <row r="24" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -2868,7 +2866,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="9"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="95"/>
+      <c r="O24" s="94"/>
       <c r="P24" s="7">
         <f>M24*D24</f>
         <v>0</v>
@@ -2894,48 +2892,48 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:36" s="120" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="116" t="s">
+    <row r="25" spans="1:36" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="114"/>
+      <c r="B25" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
       <c r="Q25" s="117">
         <f>SUM(P26:P38)</f>
         <v>54.452500000000001</v>
       </c>
-      <c r="R25" s="115"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="119"/>
-      <c r="AH25" s="119"/>
-      <c r="AI25" s="119"/>
-      <c r="AJ25" s="119"/>
+      <c r="R25" s="114"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="118"/>
     </row>
     <row r="26" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
@@ -2983,8 +2981,8 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Q26" s="32"/>
-      <c r="R26" s="93" t="s">
-        <v>200</v>
+      <c r="R26" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
@@ -3052,7 +3050,7 @@
       </c>
       <c r="Q27" s="32"/>
       <c r="R27" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
@@ -3120,7 +3118,7 @@
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -3188,7 +3186,7 @@
       </c>
       <c r="Q29" s="32"/>
       <c r="R29" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
@@ -3392,7 +3390,7 @@
         <v>2.6983999999999999</v>
       </c>
       <c r="Q32" s="32"/>
-      <c r="R32" s="93" t="s">
+      <c r="R32" s="92" t="s">
         <v>192</v>
       </c>
       <c r="S32" s="33"/>
@@ -3432,7 +3430,7 @@
         <v>189</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
@@ -3579,7 +3577,7 @@
       <c r="K35" s="39">
         <v>1</v>
       </c>
-      <c r="L35" s="100">
+      <c r="L35" s="99">
         <v>5</v>
       </c>
       <c r="M35" s="31">
@@ -3651,7 +3649,7 @@
       <c r="K36" s="39">
         <v>10</v>
       </c>
-      <c r="L36" s="100">
+      <c r="L36" s="99">
         <f>(14.5+21.31/2)*1.3</f>
         <v>32.701500000000003</v>
       </c>
@@ -3724,7 +3722,7 @@
       <c r="K37" s="39">
         <v>10</v>
       </c>
-      <c r="L37" s="100">
+      <c r="L37" s="99">
         <f>(10+21.31/2)*1.3</f>
         <v>26.851500000000001</v>
       </c>
@@ -3848,7 +3846,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="2"/>
       <c r="N39" s="61"/>
-      <c r="O39" s="95"/>
+      <c r="O39" s="94"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="2"/>
@@ -3892,7 +3890,7 @@
       <c r="P40" s="19"/>
       <c r="Q40" s="19">
         <f>SUM(P41:P51)</f>
-        <v>7.6151999999999997</v>
+        <v>5.8151999999999999</v>
       </c>
       <c r="R40" s="18"/>
       <c r="S40" s="20"/>
@@ -3963,7 +3961,7 @@
       </c>
       <c r="Q41" s="25"/>
       <c r="R41" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
@@ -4033,7 +4031,7 @@
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
@@ -4103,7 +4101,7 @@
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
@@ -4173,7 +4171,7 @@
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
@@ -4243,7 +4241,7 @@
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
@@ -4383,7 +4381,7 @@
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
@@ -4621,7 +4619,7 @@
       <c r="AI50" s="26"/>
       <c r="AJ50" s="26"/>
     </row>
-    <row r="51" spans="1:36" s="74" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" s="73" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
         <v>158</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>119</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G51" s="70" t="s">
         <v>126</v>
@@ -4650,11 +4648,11 @@
         <v>1</v>
       </c>
       <c r="L51" s="71">
-        <v>0.99</v>
+        <v>0.69</v>
       </c>
       <c r="M51" s="70">
         <f>L51/K51</f>
-        <v>0.99</v>
+        <v>0.69</v>
       </c>
       <c r="N51" s="70">
         <f t="shared" si="12"/>
@@ -4662,34 +4660,34 @@
       </c>
       <c r="O51" s="71">
         <f t="shared" si="3"/>
-        <v>5.9399999999999995</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="P51" s="71">
         <f t="shared" si="15"/>
-        <v>5.9399999999999995</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q51" s="71"/>
-      <c r="R51" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="73"/>
-      <c r="AD51" s="73"/>
-      <c r="AE51" s="73"/>
-      <c r="AF51" s="73"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
-      <c r="AI51" s="73"/>
-      <c r="AJ51" s="73"/>
+      <c r="R51" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="72"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="72"/>
+      <c r="Y51" s="72"/>
+      <c r="Z51" s="72"/>
+      <c r="AA51" s="72"/>
+      <c r="AB51" s="72"/>
+      <c r="AC51" s="72"/>
+      <c r="AD51" s="72"/>
+      <c r="AE51" s="72"/>
+      <c r="AF51" s="72"/>
+      <c r="AG51" s="72"/>
+      <c r="AH51" s="72"/>
+      <c r="AI51" s="72"/>
+      <c r="AJ51" s="72"/>
     </row>
     <row r="52" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
@@ -38150,18 +38148,18 @@
     <hyperlink ref="R33" r:id="rId25" xr:uid="{B7E5EDBF-D9C6-410B-B311-48447C038F42}"/>
     <hyperlink ref="R48" r:id="rId26" xr:uid="{F522E86C-EBFA-43B8-8CE6-2BD53BF6F766}"/>
     <hyperlink ref="R32" r:id="rId27" xr:uid="{9ECF5D23-8353-48BC-9A87-8A93877D6A09}"/>
-    <hyperlink ref="R51" r:id="rId28" xr:uid="{BC8711DD-D474-4801-B645-D59E07A58E2F}"/>
-    <hyperlink ref="R47" r:id="rId29" xr:uid="{6FDB0834-5338-48DB-AE68-7FF900EB67F5}"/>
-    <hyperlink ref="R31" r:id="rId30" xr:uid="{2A500CEF-6ACF-4DA5-960A-41D3D24A2196}"/>
-    <hyperlink ref="R26" r:id="rId31" xr:uid="{0070AA7B-9C4A-4C7F-9965-C5532D577D4D}"/>
-    <hyperlink ref="R27" r:id="rId32" xr:uid="{B4820943-E384-42BF-9A34-7BCD50F052E2}"/>
-    <hyperlink ref="R28" r:id="rId33" xr:uid="{36D3B12C-718C-4669-A940-FB988B07D8E9}"/>
-    <hyperlink ref="R29" r:id="rId34" xr:uid="{180D3D2F-E92D-40D2-AADD-89375B5C7C71}"/>
-    <hyperlink ref="R41" r:id="rId35" xr:uid="{F74A4D60-00FC-4D53-8EBC-CAE7B17D7939}"/>
-    <hyperlink ref="R42" r:id="rId36" xr:uid="{8EB99623-CF62-468A-9A3B-EE6603B658B8}"/>
-    <hyperlink ref="R43" r:id="rId37" xr:uid="{C58038B5-F1F9-44E8-84A8-9BB490624B57}"/>
-    <hyperlink ref="R44" r:id="rId38" xr:uid="{F4B7CDF1-2B43-4EFD-A17B-61C5E22D0F4A}"/>
-    <hyperlink ref="R45" r:id="rId39" xr:uid="{3EF58861-66EE-4AD3-97F2-3B1C3146D995}"/>
+    <hyperlink ref="R47" r:id="rId28" xr:uid="{6FDB0834-5338-48DB-AE68-7FF900EB67F5}"/>
+    <hyperlink ref="R31" r:id="rId29" xr:uid="{2A500CEF-6ACF-4DA5-960A-41D3D24A2196}"/>
+    <hyperlink ref="R26" r:id="rId30" xr:uid="{0070AA7B-9C4A-4C7F-9965-C5532D577D4D}"/>
+    <hyperlink ref="R27" r:id="rId31" xr:uid="{B4820943-E384-42BF-9A34-7BCD50F052E2}"/>
+    <hyperlink ref="R28" r:id="rId32" xr:uid="{36D3B12C-718C-4669-A940-FB988B07D8E9}"/>
+    <hyperlink ref="R29" r:id="rId33" xr:uid="{180D3D2F-E92D-40D2-AADD-89375B5C7C71}"/>
+    <hyperlink ref="R41" r:id="rId34" xr:uid="{F74A4D60-00FC-4D53-8EBC-CAE7B17D7939}"/>
+    <hyperlink ref="R42" r:id="rId35" xr:uid="{8EB99623-CF62-468A-9A3B-EE6603B658B8}"/>
+    <hyperlink ref="R43" r:id="rId36" xr:uid="{C58038B5-F1F9-44E8-84A8-9BB490624B57}"/>
+    <hyperlink ref="R44" r:id="rId37" xr:uid="{F4B7CDF1-2B43-4EFD-A17B-61C5E22D0F4A}"/>
+    <hyperlink ref="R45" r:id="rId38" xr:uid="{3EF58861-66EE-4AD3-97F2-3B1C3146D995}"/>
+    <hyperlink ref="R51" r:id="rId39" xr:uid="{BB672D82-4E78-4C4C-AF9D-C34AF845AD91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId40"/>

--- a/Documentation/SPA_BOM_v1.0.xlsx
+++ b/Documentation/SPA_BOM_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Jake\Dropbox\Makers Making Change\Projects\Switches\HT3 Sip and Puff Switch\Publishing\GitHub\Sip-And-Puff-Analog-Switch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F941881B-5357-4C50-8DAC-0E2055FBDDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A9273-D2C8-46BB-8654-59C8F3CE1DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1650" windowWidth="17640" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sip_and_Puff_Switch" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>tc={504E189D-AFEC-4AD8-AA5A-87C27E43FC93}</author>
   </authors>
   <commentList>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{6075C686-F24D-458B-B43E-B1484400786F}">
+    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{6075C686-F24D-458B-B43E-B1484400786F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -44,7 +44,7 @@
     Captured above</t>
       </text>
     </comment>
-    <comment ref="D49" authorId="1" shapeId="0" xr:uid="{504E189D-AFEC-4AD8-AA5A-87C27E43FC93}">
+    <comment ref="D50" authorId="1" shapeId="0" xr:uid="{504E189D-AFEC-4AD8-AA5A-87C27E43FC93}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="215">
   <si>
     <t>Qty</t>
   </si>
@@ -685,6 +685,24 @@
   <si>
     <t>https://www.digikey.ca/en/products/detail/keystone-electronics/29316/1532210</t>
   </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>PREC002SAAN-RC</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>S1012EC-02-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PREC002SAAN-RC/2774852</t>
+  </si>
 </sst>
 </file>
 
@@ -693,11 +711,18 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -914,140 +939,142 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1271,10 +1298,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D48" dT="2020-07-06T18:33:16.65" personId="{091F6094-3589-4559-B8BF-A4B41FD993E9}" id="{6075C686-F24D-458B-B43E-B1484400786F}">
+  <threadedComment ref="D49" dT="2020-07-06T18:33:16.65" personId="{091F6094-3589-4559-B8BF-A4B41FD993E9}" id="{6075C686-F24D-458B-B43E-B1484400786F}">
     <text>Captured above</text>
   </threadedComment>
-  <threadedComment ref="D49" dT="2020-07-06T18:33:27.18" personId="{091F6094-3589-4559-B8BF-A4B41FD993E9}" id="{504E189D-AFEC-4AD8-AA5A-87C27E43FC93}">
+  <threadedComment ref="D50" dT="2020-07-06T18:33:27.18" personId="{091F6094-3589-4559-B8BF-A4B41FD993E9}" id="{504E189D-AFEC-4AD8-AA5A-87C27E43FC93}">
     <text>Captured above.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1282,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1006"/>
+  <dimension ref="A1:AJ1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1408,13 +1435,13 @@
       <c r="M2" s="85"/>
       <c r="N2" s="85"/>
       <c r="O2" s="86">
-        <f>SUM(O5:O51)</f>
-        <v>284.91299999999995</v>
+        <f>SUM(O5:O52)</f>
+        <v>285.00299999999999</v>
       </c>
       <c r="P2" s="86"/>
       <c r="Q2" s="122">
-        <f>SUM(Q3:Q52)</f>
-        <v>111.43770000000001</v>
+        <f>SUM(Q3:Q53)</f>
+        <v>111.52770000000001</v>
       </c>
       <c r="R2" s="85"/>
       <c r="S2" s="87"/>
@@ -1494,8 +1521,8 @@
       <c r="O4" s="93"/>
       <c r="P4" s="96"/>
       <c r="Q4" s="76">
-        <f>SUM(P5:P20)</f>
-        <v>48.17</v>
+        <f>SUM(P5:P21)</f>
+        <v>48.260000000000005</v>
       </c>
       <c r="R4" s="75"/>
       <c r="S4" s="77"/>
@@ -1557,7 +1584,7 @@
         <v>21.94</v>
       </c>
       <c r="N5" s="47">
-        <f t="shared" ref="N5:N31" si="0">CEILING(D5/K5,1)</f>
+        <f t="shared" ref="N5:N32" si="0">CEILING(D5/K5,1)</f>
         <v>1</v>
       </c>
       <c r="O5" s="50">
@@ -1565,7 +1592,7 @@
         <v>21.94</v>
       </c>
       <c r="P5" s="50">
-        <f t="shared" ref="P5:P21" si="1">M5*D5</f>
+        <f t="shared" ref="P5:P22" si="1">M5*D5</f>
         <v>21.94</v>
       </c>
       <c r="Q5" s="50"/>
@@ -1627,7 +1654,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" ref="M6:M23" si="2">L6/K6</f>
+        <f t="shared" ref="M6:M24" si="2">L6/K6</f>
         <v>1.7000000000000002</v>
       </c>
       <c r="N6" s="47">
@@ -1635,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="50">
-        <f t="shared" ref="O6:O51" si="3">N6*L6</f>
+        <f t="shared" ref="O6:O52" si="3">N6*L6</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="P6" s="50">
@@ -2625,383 +2652,389 @@
       <c r="AI19" s="48"/>
       <c r="AJ19" s="48"/>
     </row>
-    <row r="20" spans="1:36" s="68" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:36" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="52">
+        <v>1</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="55">
+        <v>1</v>
+      </c>
+      <c r="L20" s="97">
+        <v>0.09</v>
+      </c>
+      <c r="M20" s="47">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="N20" s="47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="50">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="125" t="s">
+        <v>214</v>
+      </c>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+    </row>
+    <row r="21" spans="1:36" s="68" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="63">
         <v>2</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E21" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F21" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G21" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="63" t="s">
+      <c r="H21" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="I21" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J21" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K21" s="63">
         <v>1</v>
       </c>
-      <c r="L20" s="98">
+      <c r="L21" s="98">
         <v>3.49</v>
       </c>
-      <c r="M20" s="64">
+      <c r="M21" s="64">
         <f t="shared" si="2"/>
         <v>3.49</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N21" s="64">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O20" s="65">
+      <c r="O21" s="65">
         <f t="shared" si="3"/>
         <v>6.98</v>
       </c>
-      <c r="P20" s="65">
+      <c r="P21" s="65">
         <f t="shared" si="1"/>
         <v>6.98</v>
       </c>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="66" t="s">
+      <c r="Q21" s="65"/>
+      <c r="R21" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-    </row>
-    <row r="21" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="7">
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="67"/>
+    </row>
+    <row r="22" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-    </row>
-    <row r="22" spans="1:36" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="101" t="s">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+    </row>
+    <row r="23" spans="1:36" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
+      <c r="B23" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="105">
-        <f>SUM(P23)</f>
+      <c r="C23" s="79"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="105">
+        <f>SUM(P24)</f>
         <v>3</v>
       </c>
-      <c r="R22" s="106"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-    </row>
-    <row r="23" spans="1:36" s="113" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107" t="s">
+      <c r="R23" s="106"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+    </row>
+    <row r="24" spans="1:36" s="113" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="107"/>
+      <c r="B24" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C24" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D24" s="107">
         <v>1</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E24" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="108" t="s">
+      <c r="F24" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G24" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107">
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107">
         <v>5</v>
       </c>
-      <c r="L23" s="109">
+      <c r="L24" s="109">
         <v>15</v>
       </c>
-      <c r="M23" s="108">
+      <c r="M24" s="108">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N23" s="108">
+      <c r="N24" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O23" s="110">
+      <c r="O24" s="110">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P23" s="110">
-        <f>M23*D23</f>
+      <c r="P24" s="110">
+        <f>M24*D24</f>
         <v>3</v>
       </c>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="111" t="s">
+      <c r="Q24" s="109"/>
+      <c r="R24" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="112"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="112"/>
-      <c r="AI23" s="112"/>
-      <c r="AJ23" s="112"/>
-    </row>
-    <row r="24" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="7">
-        <f>M24*D24</f>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="112"/>
+      <c r="AI24" s="112"/>
+      <c r="AJ24" s="112"/>
+    </row>
+    <row r="25" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="7">
+        <f>M25*D25</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-    </row>
-    <row r="25" spans="1:36" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115" t="s">
+      <c r="Q25" s="10"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+    </row>
+    <row r="26" spans="1:36" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="114"/>
+      <c r="B26" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117">
-        <f>SUM(P26:P38)</f>
+      <c r="C26" s="114"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="117">
+        <f>SUM(P27:P39)</f>
         <v>54.452500000000001</v>
       </c>
-      <c r="R25" s="114"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-    </row>
-    <row r="26" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="30">
-        <v>1</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31">
-        <v>1</v>
-      </c>
-      <c r="L26" s="32">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M26" s="31">
-        <f t="shared" ref="M26" si="4">L26/K26</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N26" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="32">
-        <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P26" s="32">
-        <f t="shared" ref="P26:P38" si="5">M26*D26</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="118"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="118"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
     </row>
     <row r="27" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
@@ -3015,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>174</v>
@@ -3030,11 +3063,11 @@
         <v>1</v>
       </c>
       <c r="L27" s="32">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M27" s="31">
-        <f t="shared" ref="M27" si="6">L27/K27</f>
-        <v>0.5</v>
+        <f t="shared" ref="M27" si="4">L27/K27</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N27" s="31">
         <f t="shared" si="0"/>
@@ -3042,15 +3075,15 @@
       </c>
       <c r="O27" s="32">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P27" s="32">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" ref="P27:P39" si="5">M27*D27</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q27" s="32"/>
-      <c r="R27" s="36" t="s">
-        <v>199</v>
+      <c r="R27" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
@@ -3079,14 +3112,14 @@
       <c r="C28" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>1</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>105</v>
+      <c r="E28" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>174</v>
@@ -3098,11 +3131,11 @@
         <v>1</v>
       </c>
       <c r="L28" s="32">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" ref="M28" si="7">L28/K28</f>
-        <v>0.19</v>
+        <f t="shared" ref="M28" si="6">L28/K28</f>
+        <v>0.5</v>
       </c>
       <c r="N28" s="31">
         <f t="shared" si="0"/>
@@ -3110,15 +3143,15 @@
       </c>
       <c r="O28" s="32">
         <f t="shared" si="3"/>
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="P28" s="32">
         <f t="shared" si="5"/>
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="Q28" s="32"/>
       <c r="R28" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -3148,13 +3181,13 @@
         <v>102</v>
       </c>
       <c r="D29" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>174</v>
@@ -3166,27 +3199,27 @@
         <v>1</v>
       </c>
       <c r="L29" s="32">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" ref="M29" si="8">L29/K29</f>
-        <v>0.01</v>
+        <f t="shared" ref="M29" si="7">L29/K29</f>
+        <v>0.19</v>
       </c>
       <c r="N29" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" s="32">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="P29" s="32">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="Q29" s="32"/>
       <c r="R29" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
@@ -3213,19 +3246,19 @@
         <v>101</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="30">
-        <v>5</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="D30" s="31">
+        <v>4</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
@@ -3234,27 +3267,27 @@
         <v>1</v>
       </c>
       <c r="L30" s="32">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="M30" s="31">
-        <f t="shared" ref="M30" si="9">L30/K30</f>
-        <v>0.32</v>
+        <f t="shared" ref="M30" si="8">L30/K30</f>
+        <v>0.01</v>
       </c>
       <c r="N30" s="31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O30" s="32">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>0.04</v>
       </c>
       <c r="P30" s="32">
         <f t="shared" si="5"/>
-        <v>1.6</v>
+        <v>0.04</v>
       </c>
       <c r="Q30" s="32"/>
-      <c r="R30" s="35" t="s">
-        <v>136</v>
+      <c r="R30" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
@@ -3283,17 +3316,17 @@
       <c r="C31" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>110</v>
+      <c r="D31" s="30">
+        <v>5</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
@@ -3302,27 +3335,27 @@
         <v>1</v>
       </c>
       <c r="L31" s="32">
-        <v>11.42</v>
+        <v>0.32</v>
       </c>
       <c r="M31" s="31">
-        <f t="shared" ref="M31" si="10">L31/K31</f>
-        <v>11.42</v>
+        <f t="shared" ref="M31" si="9">L31/K31</f>
+        <v>0.32</v>
       </c>
       <c r="N31" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O31" s="32">
         <f t="shared" si="3"/>
-        <v>11.42</v>
+        <v>1.6</v>
       </c>
       <c r="P31" s="32">
         <f t="shared" si="5"/>
-        <v>11.42</v>
+        <v>1.6</v>
       </c>
       <c r="Q31" s="32"/>
       <c r="R31" s="35" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
@@ -3352,13 +3385,13 @@
         <v>95</v>
       </c>
       <c r="D32" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>171</v>
@@ -3367,31 +3400,30 @@
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L32" s="32">
-        <f>18.56+15.17</f>
-        <v>33.729999999999997</v>
+        <v>11.42</v>
       </c>
       <c r="M32" s="31">
-        <f t="shared" ref="M32:M33" si="11">L32/K32</f>
-        <v>1.3492</v>
+        <f t="shared" ref="M32" si="10">L32/K32</f>
+        <v>11.42</v>
       </c>
       <c r="N32" s="31">
-        <f>CEILING(D32/K32,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O32" s="32">
         <f t="shared" si="3"/>
-        <v>33.729999999999997</v>
+        <v>11.42</v>
       </c>
       <c r="P32" s="32">
         <f t="shared" si="5"/>
-        <v>2.6983999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="Q32" s="32"/>
-      <c r="R32" s="92" t="s">
-        <v>192</v>
+      <c r="R32" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
@@ -3421,16 +3453,16 @@
         <v>95</v>
       </c>
       <c r="D33" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
@@ -3439,27 +3471,28 @@
         <v>25</v>
       </c>
       <c r="L33" s="32">
-        <v>36.47</v>
+        <f>18.56+15.17</f>
+        <v>33.729999999999997</v>
       </c>
       <c r="M33" s="31">
-        <f t="shared" si="11"/>
-        <v>1.4587999999999999</v>
+        <f t="shared" ref="M33:M34" si="11">L33/K33</f>
+        <v>1.3492</v>
       </c>
       <c r="N33" s="31">
-        <f t="shared" ref="N33:N51" si="12">CEILING(D33/K33,1)</f>
+        <f>CEILING(D33/K33,1)</f>
         <v>1</v>
       </c>
       <c r="O33" s="32">
         <f t="shared" si="3"/>
-        <v>36.47</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="P33" s="32">
         <f t="shared" si="5"/>
-        <v>1.4587999999999999</v>
+        <v>2.6983999999999999</v>
       </c>
       <c r="Q33" s="32"/>
-      <c r="R33" s="36" t="s">
-        <v>185</v>
+      <c r="R33" s="92" t="s">
+        <v>192</v>
       </c>
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
@@ -3483,52 +3516,51 @@
     <row r="34" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="30">
-        <v>2</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>127</v>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L34" s="32">
-        <f>12.99+7.05</f>
-        <v>20.04</v>
+        <v>36.47</v>
       </c>
       <c r="M34" s="31">
-        <f t="shared" ref="M34:M38" si="13">L34/K34</f>
-        <v>10.02</v>
+        <f t="shared" si="11"/>
+        <v>1.4587999999999999</v>
       </c>
       <c r="N34" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N34:N52" si="12">CEILING(D34/K34,1)</f>
         <v>1</v>
       </c>
       <c r="O34" s="32">
         <f t="shared" si="3"/>
-        <v>20.04</v>
+        <v>36.47</v>
       </c>
       <c r="P34" s="32">
         <f t="shared" si="5"/>
-        <v>20.04</v>
+        <v>1.4587999999999999</v>
       </c>
       <c r="Q34" s="32"/>
-      <c r="R34" s="35" t="s">
-        <v>180</v>
+      <c r="R34" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
@@ -3557,48 +3589,47 @@
       <c r="C35" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="30">
         <v>2</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="37" t="s">
+      <c r="E35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39">
-        <v>1</v>
-      </c>
-      <c r="L35" s="99">
-        <v>5</v>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31">
+        <v>2</v>
+      </c>
+      <c r="L35" s="32">
+        <f>12.99+7.05</f>
+        <v>20.04</v>
       </c>
       <c r="M35" s="31">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" ref="M35:M39" si="13">L35/K35</f>
+        <v>10.02</v>
       </c>
       <c r="N35" s="31">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" s="32">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20.04</v>
       </c>
       <c r="P35" s="32">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>20.04</v>
       </c>
       <c r="Q35" s="32"/>
       <c r="R35" s="35" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
@@ -3620,58 +3651,55 @@
       <c r="AJ35" s="33"/>
     </row>
     <row r="36" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>162</v>
-      </c>
+      <c r="A36" s="30"/>
       <c r="B36" s="30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="38">
-        <v>80102</v>
+      <c r="I36" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="J36" s="39"/>
       <c r="K36" s="39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L36" s="99">
-        <f>(14.5+21.31/2)*1.3</f>
-        <v>32.701500000000003</v>
+        <v>5</v>
       </c>
       <c r="M36" s="31">
         <f t="shared" si="13"/>
-        <v>3.2701500000000001</v>
+        <v>5</v>
       </c>
       <c r="N36" s="31">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="32">
         <f t="shared" si="3"/>
-        <v>32.701500000000003</v>
+        <v>10</v>
       </c>
       <c r="P36" s="32">
         <f t="shared" si="5"/>
-        <v>3.2701500000000001</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="32"/>
-      <c r="R36" s="36" t="s">
-        <v>186</v>
+      <c r="R36" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
@@ -3694,7 +3722,7 @@
     </row>
     <row r="37" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>111</v>
@@ -3706,29 +3734,29 @@
         <v>1</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>182</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="38">
-        <v>28213</v>
+        <v>80102</v>
       </c>
       <c r="J37" s="39"/>
       <c r="K37" s="39">
         <v>10</v>
       </c>
       <c r="L37" s="99">
-        <f>(10+21.31/2)*1.3</f>
-        <v>26.851500000000001</v>
+        <f>(14.5+21.31/2)*1.3</f>
+        <v>32.701500000000003</v>
       </c>
       <c r="M37" s="31">
         <f t="shared" si="13"/>
-        <v>2.6851500000000001</v>
+        <v>3.2701500000000001</v>
       </c>
       <c r="N37" s="31">
         <f t="shared" si="12"/>
@@ -3736,15 +3764,15 @@
       </c>
       <c r="O37" s="32">
         <f t="shared" si="3"/>
-        <v>26.851500000000001</v>
+        <v>32.701500000000003</v>
       </c>
       <c r="P37" s="32">
         <f t="shared" si="5"/>
-        <v>2.6851500000000001</v>
+        <v>3.2701500000000001</v>
       </c>
       <c r="Q37" s="32"/>
       <c r="R37" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
@@ -3765,226 +3793,229 @@
       <c r="AI37" s="33"/>
       <c r="AJ37" s="33"/>
     </row>
-    <row r="38" spans="1:36" s="45" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+    <row r="38" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="37">
+        <v>1</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38">
+        <v>28213</v>
+      </c>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39">
+        <v>10</v>
+      </c>
+      <c r="L38" s="99">
+        <f>(10+21.31/2)*1.3</f>
+        <v>26.851500000000001</v>
+      </c>
+      <c r="M38" s="31">
+        <f t="shared" si="13"/>
+        <v>2.6851500000000001</v>
+      </c>
+      <c r="N38" s="31">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="32">
+        <f t="shared" si="3"/>
+        <v>26.851500000000001</v>
+      </c>
+      <c r="P38" s="32">
+        <f t="shared" si="5"/>
+        <v>2.6851500000000001</v>
+      </c>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+    </row>
+    <row r="39" spans="1:36" s="45" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B39" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C39" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D39" s="40">
         <v>1</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E39" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F39" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41">
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41">
         <v>1</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="41">
+      <c r="L39" s="42"/>
+      <c r="M39" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N39" s="41">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="O38" s="42">
+      <c r="O39" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P38" s="42">
+      <c r="P39" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="43" t="s">
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
-    </row>
-    <row r="39" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-      <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-    </row>
-    <row r="40" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+    </row>
+    <row r="40" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+    </row>
+    <row r="41" spans="1:36" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19">
-        <f>SUM(P41:P51)</f>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19">
+        <f>SUM(P42:P52)</f>
         <v>5.8151999999999999</v>
       </c>
-      <c r="R40" s="18"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-    </row>
-    <row r="41" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="23">
-        <v>1</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24">
-        <v>1</v>
-      </c>
-      <c r="L41" s="25">
-        <v>0.15</v>
-      </c>
-      <c r="M41" s="24">
-        <f t="shared" ref="M41:M49" si="14">L41/K41</f>
-        <v>0.15</v>
-      </c>
-      <c r="N41" s="24">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="25">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="P41" s="25">
-        <f t="shared" ref="P41:P51" si="15">M41*D41</f>
-        <v>0.15</v>
-      </c>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
     </row>
     <row r="42" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>146</v>
@@ -3996,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>174</v>
@@ -4011,11 +4042,11 @@
         <v>1</v>
       </c>
       <c r="L42" s="25">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="M42" s="24">
-        <f t="shared" si="14"/>
-        <v>0.12</v>
+        <f t="shared" ref="M42:M50" si="14">L42/K42</f>
+        <v>0.15</v>
       </c>
       <c r="N42" s="24">
         <f t="shared" si="12"/>
@@ -4023,15 +4054,15 @@
       </c>
       <c r="O42" s="25">
         <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="P42" s="25">
-        <f t="shared" si="15"/>
-        <v>0.12</v>
+        <f t="shared" ref="P42:P52" si="15">M42*D42</f>
+        <v>0.15</v>
       </c>
       <c r="Q42" s="25"/>
       <c r="R42" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
@@ -4054,7 +4085,7 @@
     </row>
     <row r="43" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>146</v>
@@ -4066,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>174</v>
@@ -4081,11 +4112,11 @@
         <v>1</v>
       </c>
       <c r="L43" s="25">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="M43" s="24">
         <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="N43" s="24">
         <f t="shared" si="12"/>
@@ -4093,15 +4124,15 @@
       </c>
       <c r="O43" s="25">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="P43" s="25">
         <f t="shared" si="15"/>
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="Q43" s="25"/>
       <c r="R43" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
@@ -4124,7 +4155,7 @@
     </row>
     <row r="44" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>146</v>
@@ -4136,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>174</v>
@@ -4151,11 +4182,11 @@
         <v>1</v>
       </c>
       <c r="L44" s="25">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="M44" s="24">
         <f t="shared" si="14"/>
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N44" s="24">
         <f t="shared" si="12"/>
@@ -4163,15 +4194,15 @@
       </c>
       <c r="O44" s="25">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="P44" s="25">
         <f t="shared" si="15"/>
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="Q44" s="25"/>
       <c r="R44" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S44" s="26"/>
       <c r="T44" s="26"/>
@@ -4194,7 +4225,7 @@
     </row>
     <row r="45" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>146</v>
@@ -4206,10 +4237,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>174</v>
@@ -4221,11 +4252,11 @@
         <v>1</v>
       </c>
       <c r="L45" s="25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="M45" s="24">
         <f t="shared" si="14"/>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N45" s="24">
         <f t="shared" si="12"/>
@@ -4233,15 +4264,15 @@
       </c>
       <c r="O45" s="25">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="P45" s="25">
         <f t="shared" si="15"/>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="Q45" s="25"/>
       <c r="R45" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
@@ -4264,38 +4295,38 @@
     </row>
     <row r="46" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D46" s="23">
         <v>1</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L46" s="25">
-        <v>19.489999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="M46" s="24">
         <f t="shared" si="14"/>
-        <v>0.19489999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="N46" s="24">
         <f t="shared" si="12"/>
@@ -4303,15 +4334,15 @@
       </c>
       <c r="O46" s="25">
         <f t="shared" si="3"/>
-        <v>19.489999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="P46" s="25">
         <f t="shared" si="15"/>
-        <v>0.19489999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="Q46" s="25"/>
-      <c r="R46" s="28" t="s">
-        <v>148</v>
+      <c r="R46" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="S46" s="26"/>
       <c r="T46" s="26"/>
@@ -4334,7 +4365,7 @@
     </row>
     <row r="47" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>146</v>
@@ -4343,16 +4374,16 @@
         <v>95</v>
       </c>
       <c r="D47" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -4361,11 +4392,11 @@
         <v>100</v>
       </c>
       <c r="L47" s="25">
-        <v>6.61</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="M47" s="24">
         <f t="shared" si="14"/>
-        <v>6.6100000000000006E-2</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="N47" s="24">
         <f t="shared" si="12"/>
@@ -4373,15 +4404,15 @@
       </c>
       <c r="O47" s="25">
         <f t="shared" si="3"/>
-        <v>6.61</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="P47" s="25">
         <f t="shared" si="15"/>
-        <v>0.19830000000000003</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="Q47" s="25"/>
-      <c r="R47" s="60" t="s">
-        <v>196</v>
+      <c r="R47" s="28" t="s">
+        <v>148</v>
       </c>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
@@ -4404,7 +4435,7 @@
     </row>
     <row r="48" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>146</v>
@@ -4413,46 +4444,45 @@
         <v>95</v>
       </c>
       <c r="D48" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L48" s="25">
-        <f>18.56+15.17</f>
-        <v>33.729999999999997</v>
+        <v>6.61</v>
       </c>
       <c r="M48" s="24">
         <f t="shared" si="14"/>
-        <v>1.3492</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="N48" s="24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="P48" s="25">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.19830000000000003</v>
       </c>
       <c r="Q48" s="25"/>
       <c r="R48" s="60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="S48" s="26"/>
       <c r="T48" s="26"/>
@@ -4475,7 +4505,7 @@
     </row>
     <row r="49" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>146</v>
@@ -4483,34 +4513,31 @@
       <c r="C49" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="23">
         <v>0</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>166</v>
+      <c r="E49" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H49" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24">
         <v>25</v>
       </c>
       <c r="L49" s="25">
-        <v>36.47</v>
+        <f>18.56+15.17</f>
+        <v>33.729999999999997</v>
       </c>
       <c r="M49" s="24">
         <f t="shared" si="14"/>
-        <v>1.4587999999999999</v>
+        <v>1.3492</v>
       </c>
       <c r="N49" s="24">
         <f t="shared" si="12"/>
@@ -4525,8 +4552,8 @@
         <v>0</v>
       </c>
       <c r="Q49" s="25"/>
-      <c r="R49" s="29" t="s">
-        <v>185</v>
+      <c r="R49" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="S49" s="26"/>
       <c r="T49" s="26"/>
@@ -4549,56 +4576,58 @@
     </row>
     <row r="50" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="D50" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>172</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="J50" s="24"/>
       <c r="K50" s="24">
         <v>25</v>
       </c>
       <c r="L50" s="25">
-        <v>16.8</v>
+        <v>36.47</v>
       </c>
       <c r="M50" s="24">
-        <f>L50/K50</f>
-        <v>0.67200000000000004</v>
+        <f t="shared" si="14"/>
+        <v>1.4587999999999999</v>
       </c>
       <c r="N50" s="24">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="25">
         <f t="shared" si="3"/>
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="P50" s="25">
         <f t="shared" si="15"/>
-        <v>0.67200000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="25"/>
-      <c r="R50" s="28" t="s">
-        <v>168</v>
+      <c r="R50" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="S50" s="26"/>
       <c r="T50" s="26"/>
@@ -4619,110 +4648,147 @@
       <c r="AI50" s="26"/>
       <c r="AJ50" s="26"/>
     </row>
-    <row r="51" spans="1:36" s="73" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69" t="s">
+    <row r="51" spans="1:36" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24">
+        <v>25</v>
+      </c>
+      <c r="L51" s="25">
+        <v>16.8</v>
+      </c>
+      <c r="M51" s="24">
+        <f>L51/K51</f>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="N51" s="24">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" si="15"/>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="26"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+    </row>
+    <row r="52" spans="1:36" s="73" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B52" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C52" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="70">
+      <c r="D52" s="70">
         <v>6</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E52" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="F52" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="70" t="s">
+      <c r="G52" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70">
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70">
         <v>1</v>
       </c>
-      <c r="L51" s="71">
+      <c r="L52" s="71">
         <v>0.69</v>
       </c>
-      <c r="M51" s="70">
-        <f>L51/K51</f>
+      <c r="M52" s="70">
+        <f>L52/K52</f>
         <v>0.69</v>
       </c>
-      <c r="N51" s="70">
+      <c r="N52" s="70">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="O51" s="71">
+      <c r="O52" s="71">
         <f t="shared" si="3"/>
         <v>4.1399999999999997</v>
       </c>
-      <c r="P51" s="71">
+      <c r="P52" s="71">
         <f t="shared" si="15"/>
         <v>4.1399999999999997</v>
       </c>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="123" t="s">
+      <c r="Q52" s="71"/>
+      <c r="R52" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="72"/>
-      <c r="Z51" s="72"/>
-      <c r="AA51" s="72"/>
-      <c r="AB51" s="72"/>
-      <c r="AC51" s="72"/>
-      <c r="AD51" s="72"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="72"/>
-      <c r="AG51" s="72"/>
-      <c r="AH51" s="72"/>
-      <c r="AI51" s="72"/>
-      <c r="AJ51" s="72"/>
-    </row>
-    <row r="52" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
+      <c r="Y52" s="72"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="72"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="72"/>
+      <c r="AG52" s="72"/>
+      <c r="AH52" s="72"/>
+      <c r="AI52" s="72"/>
+      <c r="AJ52" s="72"/>
     </row>
     <row r="53" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
@@ -4760,7 +4826,6 @@
       <c r="AJ53" s="1"/>
     </row>
     <row r="54" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4940,6 +5005,7 @@
       <c r="AJ58" s="1"/>
     </row>
     <row r="59" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -38119,6 +38185,41 @@
       <c r="AI1006" s="1"/>
       <c r="AJ1006" s="1"/>
     </row>
+    <row r="1007" spans="4:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="6"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="6"/>
+      <c r="P1007" s="6"/>
+      <c r="Q1007" s="6"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+      <c r="AA1007" s="1"/>
+      <c r="AB1007" s="1"/>
+      <c r="AC1007" s="1"/>
+      <c r="AD1007" s="1"/>
+      <c r="AE1007" s="1"/>
+      <c r="AF1007" s="1"/>
+      <c r="AG1007" s="1"/>
+      <c r="AH1007" s="1"/>
+      <c r="AI1007" s="1"/>
+      <c r="AJ1007" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -38136,33 +38237,34 @@
     <hyperlink ref="R17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="R18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="R19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="R20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="R35" r:id="rId17" xr:uid="{603E023B-6A87-42C6-AADE-2F7CABF0C736}"/>
-    <hyperlink ref="R30" r:id="rId18" xr:uid="{DDE3DDF1-61EE-4F5F-AE86-0A7D4F54E6E5}"/>
-    <hyperlink ref="R46" r:id="rId19" xr:uid="{AF02697D-BE37-4EA2-AE55-1A214FD87D19}"/>
-    <hyperlink ref="R38" r:id="rId20" xr:uid="{73971781-2EF9-4F13-8411-03C8923EB25B}"/>
-    <hyperlink ref="R50" r:id="rId21" xr:uid="{7795A2DA-353B-4999-BF26-3B83CCE6AA71}"/>
-    <hyperlink ref="R34" r:id="rId22" xr:uid="{5BE620C7-C332-4933-8D47-610D166B2409}"/>
-    <hyperlink ref="R49" r:id="rId23" xr:uid="{CCA6A629-4EB4-45E4-B6F9-50732482C945}"/>
-    <hyperlink ref="R37" r:id="rId24" xr:uid="{828DD6FB-AB30-4E14-AF9A-90614ACDE5DB}"/>
-    <hyperlink ref="R33" r:id="rId25" xr:uid="{B7E5EDBF-D9C6-410B-B311-48447C038F42}"/>
-    <hyperlink ref="R48" r:id="rId26" xr:uid="{F522E86C-EBFA-43B8-8CE6-2BD53BF6F766}"/>
-    <hyperlink ref="R32" r:id="rId27" xr:uid="{9ECF5D23-8353-48BC-9A87-8A93877D6A09}"/>
-    <hyperlink ref="R47" r:id="rId28" xr:uid="{6FDB0834-5338-48DB-AE68-7FF900EB67F5}"/>
-    <hyperlink ref="R31" r:id="rId29" xr:uid="{2A500CEF-6ACF-4DA5-960A-41D3D24A2196}"/>
-    <hyperlink ref="R26" r:id="rId30" xr:uid="{0070AA7B-9C4A-4C7F-9965-C5532D577D4D}"/>
-    <hyperlink ref="R27" r:id="rId31" xr:uid="{B4820943-E384-42BF-9A34-7BCD50F052E2}"/>
-    <hyperlink ref="R28" r:id="rId32" xr:uid="{36D3B12C-718C-4669-A940-FB988B07D8E9}"/>
-    <hyperlink ref="R29" r:id="rId33" xr:uid="{180D3D2F-E92D-40D2-AADD-89375B5C7C71}"/>
-    <hyperlink ref="R41" r:id="rId34" xr:uid="{F74A4D60-00FC-4D53-8EBC-CAE7B17D7939}"/>
-    <hyperlink ref="R42" r:id="rId35" xr:uid="{8EB99623-CF62-468A-9A3B-EE6603B658B8}"/>
-    <hyperlink ref="R43" r:id="rId36" xr:uid="{C58038B5-F1F9-44E8-84A8-9BB490624B57}"/>
-    <hyperlink ref="R44" r:id="rId37" xr:uid="{F4B7CDF1-2B43-4EFD-A17B-61C5E22D0F4A}"/>
-    <hyperlink ref="R45" r:id="rId38" xr:uid="{3EF58861-66EE-4AD3-97F2-3B1C3146D995}"/>
-    <hyperlink ref="R51" r:id="rId39" xr:uid="{BB672D82-4E78-4C4C-AF9D-C34AF845AD91}"/>
+    <hyperlink ref="R21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="R36" r:id="rId17" xr:uid="{603E023B-6A87-42C6-AADE-2F7CABF0C736}"/>
+    <hyperlink ref="R31" r:id="rId18" xr:uid="{DDE3DDF1-61EE-4F5F-AE86-0A7D4F54E6E5}"/>
+    <hyperlink ref="R47" r:id="rId19" xr:uid="{AF02697D-BE37-4EA2-AE55-1A214FD87D19}"/>
+    <hyperlink ref="R39" r:id="rId20" xr:uid="{73971781-2EF9-4F13-8411-03C8923EB25B}"/>
+    <hyperlink ref="R51" r:id="rId21" xr:uid="{7795A2DA-353B-4999-BF26-3B83CCE6AA71}"/>
+    <hyperlink ref="R35" r:id="rId22" xr:uid="{5BE620C7-C332-4933-8D47-610D166B2409}"/>
+    <hyperlink ref="R50" r:id="rId23" xr:uid="{CCA6A629-4EB4-45E4-B6F9-50732482C945}"/>
+    <hyperlink ref="R38" r:id="rId24" xr:uid="{828DD6FB-AB30-4E14-AF9A-90614ACDE5DB}"/>
+    <hyperlink ref="R34" r:id="rId25" xr:uid="{B7E5EDBF-D9C6-410B-B311-48447C038F42}"/>
+    <hyperlink ref="R49" r:id="rId26" xr:uid="{F522E86C-EBFA-43B8-8CE6-2BD53BF6F766}"/>
+    <hyperlink ref="R33" r:id="rId27" xr:uid="{9ECF5D23-8353-48BC-9A87-8A93877D6A09}"/>
+    <hyperlink ref="R48" r:id="rId28" xr:uid="{6FDB0834-5338-48DB-AE68-7FF900EB67F5}"/>
+    <hyperlink ref="R32" r:id="rId29" xr:uid="{2A500CEF-6ACF-4DA5-960A-41D3D24A2196}"/>
+    <hyperlink ref="R27" r:id="rId30" xr:uid="{0070AA7B-9C4A-4C7F-9965-C5532D577D4D}"/>
+    <hyperlink ref="R28" r:id="rId31" xr:uid="{B4820943-E384-42BF-9A34-7BCD50F052E2}"/>
+    <hyperlink ref="R29" r:id="rId32" xr:uid="{36D3B12C-718C-4669-A940-FB988B07D8E9}"/>
+    <hyperlink ref="R30" r:id="rId33" xr:uid="{180D3D2F-E92D-40D2-AADD-89375B5C7C71}"/>
+    <hyperlink ref="R42" r:id="rId34" xr:uid="{F74A4D60-00FC-4D53-8EBC-CAE7B17D7939}"/>
+    <hyperlink ref="R43" r:id="rId35" xr:uid="{8EB99623-CF62-468A-9A3B-EE6603B658B8}"/>
+    <hyperlink ref="R44" r:id="rId36" xr:uid="{C58038B5-F1F9-44E8-84A8-9BB490624B57}"/>
+    <hyperlink ref="R45" r:id="rId37" xr:uid="{F4B7CDF1-2B43-4EFD-A17B-61C5E22D0F4A}"/>
+    <hyperlink ref="R46" r:id="rId38" xr:uid="{3EF58861-66EE-4AD3-97F2-3B1C3146D995}"/>
+    <hyperlink ref="R52" r:id="rId39" xr:uid="{BB672D82-4E78-4C4C-AF9D-C34AF845AD91}"/>
+    <hyperlink ref="R20" r:id="rId40" xr:uid="{73F131B2-4379-49D3-99C1-BECA11029A27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId40"/>
-  <legacyDrawing r:id="rId41"/>
+  <pageSetup orientation="landscape" r:id="rId41"/>
+  <legacyDrawing r:id="rId42"/>
 </worksheet>
 </file>